--- a/data/trans_dic/P79$ninguna_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.92474694865361</v>
+        <v>0.9247469486536098</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9327901110883386</v>
+        <v>0.9327901110883385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9285134783076725</v>
+        <v>0.9285134783076723</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8963341582097581</v>
+        <v>0.8963079202333902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9111243422104305</v>
+        <v>0.9081524250302044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9098310175324493</v>
+        <v>0.9105122670289291</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9455881864778863</v>
+        <v>0.9456043748257461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9513570170911497</v>
+        <v>0.9500008395289335</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9441618891296074</v>
+        <v>0.9431573272670987</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9038211390006877</v>
+        <v>0.9038211390006878</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8767964095020283</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8745195934804085</v>
+        <v>0.8711478483326676</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8486907407750196</v>
+        <v>0.8461883647474649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8694056988675768</v>
+        <v>0.8708681727324256</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.929388982713515</v>
+        <v>0.928334076354089</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9045109066678948</v>
+        <v>0.9048199035631781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9085391605876314</v>
+        <v>0.9097155328122198</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8266084953345353</v>
+        <v>0.8266084953345354</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8816074974941677</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7884807722327115</v>
+        <v>0.7904631006738038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8394323834222621</v>
+        <v>0.8323337015930216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8130723301217949</v>
+        <v>0.8136222649634942</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8612081036936233</v>
+        <v>0.859892942180701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9176594132761945</v>
+        <v>0.9165225942798835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8679973649008311</v>
+        <v>0.8691382715297111</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8071523447767118</v>
+        <v>0.8092902371363965</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.868607185981616</v>
+        <v>0.8704550849124977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8410990336725108</v>
+        <v>0.8411681824907982</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8578138797432551</v>
+        <v>0.85943055790784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9070368423703876</v>
+        <v>0.9094431136574941</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8735876776758855</v>
+        <v>0.8741525850809212</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8026546978225975</v>
+        <v>0.8026546978225974</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.798097151166738</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7630708894051896</v>
+        <v>0.7602232116163805</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.772188061836746</v>
+        <v>0.769749958919649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.776669019758806</v>
+        <v>0.7745656245686283</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8373110093309616</v>
+        <v>0.8407333821908467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8222320155388934</v>
+        <v>0.8206592557521399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8196709210227151</v>
+        <v>0.8184797910499048</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9067712546468768</v>
+        <v>0.9067712546468767</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8141756130797162</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8336806410752226</v>
+        <v>0.8336806410752224</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8229719201566752</v>
+        <v>0.8305529721032997</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7865358056095729</v>
+        <v>0.7864247731099057</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8075526220830718</v>
+        <v>0.8059957956354378</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9548022968476393</v>
+        <v>0.9578187652235549</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8399660776438359</v>
+        <v>0.8385026785064773</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8552168649892625</v>
+        <v>0.8580585354909203</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.8554392896691553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8566178121582839</v>
+        <v>0.856617812158284</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8451472794482241</v>
+        <v>0.8433598310066357</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8445365766110594</v>
+        <v>0.8440274728691513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8474507436417087</v>
+        <v>0.8482078432972268</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8720124215822627</v>
+        <v>0.8705187288487943</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8656988744001908</v>
+        <v>0.8650451125295207</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8646429948931595</v>
+        <v>0.8654301262102403</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>488435</v>
+        <v>488421</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>437274</v>
+        <v>435848</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>932443</v>
+        <v>933141</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>515275</v>
+        <v>515283</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>456583</v>
+        <v>455932</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>967627</v>
+        <v>966598</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>416751</v>
+        <v>415144</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>355156</v>
+        <v>354109</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>778138</v>
+        <v>779447</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>442898</v>
+        <v>442396</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>378515</v>
+        <v>378645</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>813163</v>
+        <v>814216</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>362966</v>
+        <v>363879</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>155607</v>
+        <v>154291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>525008</v>
+        <v>525363</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>396445</v>
+        <v>395840</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>170108</v>
+        <v>169898</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>560474</v>
+        <v>561210</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>895590</v>
+        <v>897963</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>718713</v>
+        <v>720242</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1629209</v>
+        <v>1629343</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>951803</v>
+        <v>953597</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>750511</v>
+        <v>752502</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1692139</v>
+        <v>1693234</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>406972</v>
+        <v>405454</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>615568</v>
+        <v>613625</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1033366</v>
+        <v>1030567</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>446567</v>
+        <v>448393</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>655462</v>
+        <v>654208</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1090580</v>
+        <v>1088996</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>175042</v>
+        <v>176654</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>626889</v>
+        <v>626800</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>815401</v>
+        <v>813829</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>203082</v>
+        <v>203723</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>669474</v>
+        <v>668308</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>863529</v>
+        <v>866398</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2820601</v>
+        <v>2814636</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2960444</v>
+        <v>2958659</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5798948</v>
+        <v>5804129</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2910261</v>
+        <v>2905276</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3034626</v>
+        <v>3032334</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5916591</v>
+        <v>5921977</v>
       </c>
     </row>
     <row r="32">
